--- a/rf_feature_importance_1.xlsx
+++ b/rf_feature_importance_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82490\OneDrive\桌面\capstone\DSI-KPMG-Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\DSI-KPMG-Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA372306-56D9-4709-BA00-A7CCEC1F4E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F3226C-815B-42E7-8CC6-EBCE4567D51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Lag\Features</t>
   </si>
@@ -69,16 +69,19 @@
   <si>
     <t>GovernmentBudgetBalance</t>
   </si>
+  <si>
+    <t>Correlation Result:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -86,7 +89,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -94,7 +97,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -156,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -168,9 +178,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -186,7 +202,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -506,18 +522,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="13" width="15.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -558,7 +574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>24</v>
       </c>
@@ -599,7 +615,7 @@
         <v>2.0327897698669628E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>23</v>
       </c>
@@ -640,7 +656,7 @@
         <v>1.7298203973207221E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>22</v>
       </c>
@@ -681,7 +697,7 @@
         <v>1.82217464677632E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>21</v>
       </c>
@@ -722,7 +738,7 @@
         <v>1.315490521049785E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -763,7 +779,7 @@
         <v>2.0437194960785088E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>19</v>
       </c>
@@ -804,7 +820,7 @@
         <v>7.6097570975836503E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>18</v>
       </c>
@@ -845,7 +861,7 @@
         <v>3.4044592211515288E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>17</v>
       </c>
@@ -886,7 +902,7 @@
         <v>5.2010195004163567E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>16</v>
       </c>
@@ -927,7 +943,7 @@
         <v>7.4069339039194908E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -968,7 +984,7 @@
         <v>7.2352162859404604E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -1009,7 +1025,7 @@
         <v>1.768533734806572E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -1050,7 +1066,7 @@
         <v>1.7936522717728639E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1091,7 +1107,7 @@
         <v>1.8267833984648809E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1132,7 +1148,7 @@
         <v>1.3527128329428851E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -1173,7 +1189,7 @@
         <v>9.0636994481371855E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -1214,7 +1230,7 @@
         <v>4.7597595122753468E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -1255,7 +1271,7 @@
         <v>2.346521376964744E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>7</v>
       </c>
@@ -1296,7 +1312,7 @@
         <v>8.1354282838964117E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -1337,7 +1353,7 @@
         <v>4.7579781194079978E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -1378,7 +1394,7 @@
         <v>2.4492947955927331E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -1419,7 +1435,7 @@
         <v>9.189416574958111E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -1460,7 +1476,7 @@
         <v>7.9998490454967724E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1501,7 +1517,7 @@
         <v>7.5973162355426295E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1542,7 +1558,49 @@
         <v>9.8048309565752323E-4</v>
       </c>
     </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="6">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6">
+        <v>6</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2</v>
+      </c>
+      <c r="I27" s="6">
+        <v>3</v>
+      </c>
+      <c r="J27" s="6">
+        <v>5</v>
+      </c>
+      <c r="K27" s="6">
+        <v>24</v>
+      </c>
+      <c r="L27" s="6">
+        <v>24</v>
+      </c>
+      <c r="M27" s="6">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:M25">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/rf_feature_importance_1.xlsx
+++ b/rf_feature_importance_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\DSI-KPMG-Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F3226C-815B-42E7-8CC6-EBCE4567D51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD624DD-2AA4-48D4-BEF0-1F77581FD708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
